--- a/manual testing test cases ass.5.xlsx
+++ b/manual testing test cases ass.5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>Project Name</t>
   </si>
@@ -31,18 +31,27 @@
     <t>Created By</t>
   </si>
   <si>
-    <t>Rajkumar</t>
+    <t xml:space="preserve">Shubham </t>
   </si>
   <si>
     <t>Creation Date</t>
   </si>
   <si>
+    <t>18/10/2024</t>
+  </si>
+  <si>
     <t>Reviewed By</t>
   </si>
   <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
     <t>Reviewed Date</t>
   </si>
   <si>
+    <t>MM/DD/YYYY</t>
+  </si>
+  <si>
     <t>Test scenario ID</t>
   </si>
   <si>
@@ -115,9 +124,6 @@
     <t>Tester_TIDOC</t>
   </si>
   <si>
-    <t>MM-DD-YY</t>
-  </si>
-  <si>
     <t>No comments</t>
   </si>
   <si>
@@ -131,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">a popup message box to shoe an error "invalid username or pass/word" </t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>TC_FB_Login_003</t>
@@ -147,9 +156,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -176,11 +185,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,14 +275,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,112 +298,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,187 +336,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,24 +572,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -599,17 +602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -628,8 +620,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,142 +659,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,10 +814,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1132,8 +1162,8 @@
   <sheetPr/>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1158,7 +1188,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1166,7 +1196,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1174,287 +1204,320 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:14">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="48" customHeight="1" spans="1:14">
+      <c r="A9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" ht="48" customHeight="1" spans="1:14">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="N9" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="61" customHeight="1" spans="1:14">
+      <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="C10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="E10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="F10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
+      <c r="G10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="61" customHeight="1" spans="1:14">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" ht="61" customHeight="1" spans="1:14">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="H11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="M11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="60" spans="1:14">
+      <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" ht="61" customHeight="1" spans="1:14">
-      <c r="A11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" ht="60" spans="1:14">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
